--- a/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <t>Serie</t>
   </si>
@@ -1073,6 +1073,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7354,16 +7357,33 @@
         <v>352</v>
       </c>
       <c r="B349">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="C349">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="D349">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="E349">
-        <v>5.16</v>
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>353</v>
+      </c>
+      <c r="B350">
+        <v>1.44</v>
+      </c>
+      <c r="C350">
+        <v>1.79</v>
+      </c>
+      <c r="D350">
+        <v>2.1</v>
+      </c>
+      <c r="E350">
+        <v>3.22</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -7377,13 +7377,13 @@
         <v>1.44</v>
       </c>
       <c r="C350">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="D350">
-        <v>2.1</v>
+        <v>2.59</v>
       </c>
       <c r="E350">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
     <t>Serie</t>
   </si>
@@ -1076,6 +1076,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E350"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7386,6 +7389,23 @@
         <v>3.14</v>
       </c>
     </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>354</v>
+      </c>
+      <c r="B351">
+        <v>1.12</v>
+      </c>
+      <c r="C351">
+        <v>1.81</v>
+      </c>
+      <c r="D351">
+        <v>1.4</v>
+      </c>
+      <c r="E351">
+        <v>3.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -7394,16 +7394,16 @@
         <v>354</v>
       </c>
       <c r="B351">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="C351">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="D351">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E351">
-        <v>3.65</v>
+        <v>2.67</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t>Serie</t>
   </si>
@@ -1079,6 +1079,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E351"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7406,6 +7409,23 @@
         <v>2.67</v>
       </c>
     </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>355</v>
+      </c>
+      <c r="B352">
+        <v>0.86</v>
+      </c>
+      <c r="C352">
+        <v>1.84</v>
+      </c>
+      <c r="D352">
+        <v>2.09</v>
+      </c>
+      <c r="E352">
+        <v>3.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/2/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -7414,16 +7414,16 @@
         <v>355</v>
       </c>
       <c r="B352">
-        <v>0.86</v>
+        <v>1.1</v>
       </c>
       <c r="C352">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="D352">
-        <v>2.09</v>
+        <v>2.93</v>
       </c>
       <c r="E352">
-        <v>3.76</v>
+        <v>3.51</v>
       </c>
     </row>
   </sheetData>
